--- a/present_dataset.xlsx
+++ b/present_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gift4u\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5CBDE-662B-4221-97E3-581AB2A3B473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A05E5-B7A3-4006-AB51-D63FAA84E43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1032" windowWidth="16476" windowHeight="9852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="naver_gift_recommendation_datas" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5129" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="2099">
   <si>
     <t>title</t>
   </si>
@@ -5869,6 +5869,474 @@
   <si>
     <t>문배주양조원 문배술 명작 선물세트 40도 1L</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[국내재고 감정서제공] 구찌 브라운 인테리어 GG 바이폴드 지갑 베이지 브라운 768243</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/9898586359</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8744308/87443088632.3.jpg</t>
+  </si>
+  <si>
+    <t>LaMode</t>
+  </si>
+  <si>
+    <t>[국내백화점] 디올 남자 반지갑 오블리크 컴팩트 지갑</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/8632547693</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8617704/86177048016.jpg</t>
+  </si>
+  <si>
+    <t>아리아 럭스</t>
+  </si>
+  <si>
+    <t>이니셜각인 가죽공방 수제 남자 날개 반지갑 생일 기념일 남학생 아빠 지갑선물 얇은남자지갑</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/8654987660</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8619948/86199487983.jpg</t>
+  </si>
+  <si>
+    <t>리아씨네 지갑공장</t>
+  </si>
+  <si>
+    <t>닥스 남성 아빠 지갑 50대 남자 생일 선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/9412207647</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8695670/86956707970.jpg</t>
+  </si>
+  <si>
+    <t>달콤한조각</t>
+  </si>
+  <si>
+    <t>캐주얼 배색 동전수납 지퍼 20대 남자 반지갑 남편생일선물 남편선물 ONE</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/57097083916</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5709708/57097083916.20251005175040.jpg</t>
+  </si>
+  <si>
+    <t>솔로몬 남성 반지갑(Solomon wallet)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/4923495519</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8246801/82468019433.2.jpg</t>
+  </si>
+  <si>
+    <t>오도르가죽공방</t>
+  </si>
+  <si>
+    <t>브로그앤머로우 이니셜 남자친구 20대 생일선물 명품소가죽 반지갑</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/9865522062</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8741002/87410024335.jpg</t>
+  </si>
+  <si>
+    <t>리멤버미가죽공방</t>
+  </si>
+  <si>
+    <t>수제 슬림 반지갑 2단 사피아노 명품가죽 이니셜각인 남자친구 생일선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/12503818763</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_9004832/90048329616.jpg</t>
+  </si>
+  <si>
+    <t>수공예 브랜드 리멤버미</t>
+  </si>
+  <si>
+    <t>슬림 남자 반지갑 2단 세로형 사피아노 명품가죽 이니셜각인 생일선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/12501770915</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_9004628/90046281768.jpg</t>
+  </si>
+  <si>
+    <t>수제 반지갑 슬림 2단 사피아노 명품가죽 이니셜각인 남자친구 선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/4724424635</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8226894/82268945860.1.jpg</t>
+  </si>
+  <si>
+    <t>[백화점AS/선물포장] 닥스 지갑 남자 가죽 명품 반지갑 기념일 생일</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/11931720270</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8947623/89476230958.jpg</t>
+  </si>
+  <si>
+    <t>임프올라</t>
+  </si>
+  <si>
+    <t>30대 남자친구 생일선물 남성가죽지갑 아빠 대학생 얇은</t>
+  </si>
+  <si>
+    <t>https://www.11st.co.kr/connect/Gateway.tmall?method=Xsite&amp;prdNo=8938209237&amp;tid=1000000061</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5813737/58137379008.jpg</t>
+  </si>
+  <si>
+    <t>렌토 이니셜각인 기념일 생일선물 2030 명품수제 소가죽 클레식 반지갑</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/12471860896</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_9001637/90016371643.jpg</t>
+  </si>
+  <si>
+    <t>프리미엄 캐주얼 레더 30대남자반지갑 남편생일선물 데일리 명함</t>
+  </si>
+  <si>
+    <t>https://www.11st.co.kr/connect/Gateway.tmall?method=Xsite&amp;prdNo=8938209446&amp;tid=1000000061</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5813734/58137347228.1.jpg</t>
+  </si>
+  <si>
+    <t>40대 남자 생일 선물 남성 반지갑 벨트 세트 남학생 지갑</t>
+  </si>
+  <si>
+    <t>https://ccomu003.godomall.com/goods/goods_view.php?goodsNo=1000779657&amp;inflow=naver</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5543583/55435836948.jpg</t>
+  </si>
+  <si>
+    <t>데타스토리</t>
+  </si>
+  <si>
+    <t>남성지갑 클래식 40대남자생일선물 빈티지 반지갑 진피지갑 카드</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/53127278916</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5312727/53127278916.20250222090727.jpg</t>
+  </si>
+  <si>
+    <t>아빠생일선물 40대남자 모던 중지갑 지갑쇼핑몰 남성 대학생</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/55851433136</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5585143/55851433136.20250719011217.jpg</t>
+  </si>
+  <si>
+    <t>브라운 베이직 남성 가죽 반지갑 생일선물 직장인 30대 클래식한 카드포켓 비즈니스맨</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/12376142524</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8992065/89920653241.jpg</t>
+  </si>
+  <si>
+    <t>더나이스77</t>
+  </si>
+  <si>
+    <t>가파치 클래식핏 오픈형 남성용 탄탄소가죽 반지갑 40대 슬림디자인 신분증포켓 생일선물</t>
+  </si>
+  <si>
+    <t>https://link.auction.co.kr/gate/pcs?item-no=E616121201&amp;sub-id=1&amp;service-code=10000003</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_5110964/51109645645.1.jpg</t>
+  </si>
+  <si>
+    <t>가파치</t>
+  </si>
+  <si>
+    <t>페레로로쉐 초콜릿 600g 48개입 크리스마스 수능 발렌타인 선물 코스트코</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/12600812728</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_9014532/90145323584.10.jpg</t>
+  </si>
+  <si>
+    <t>청년상사 스토어</t>
+  </si>
+  <si>
+    <t>페레로로쉐</t>
+  </si>
+  <si>
+    <t>페레로</t>
+  </si>
+  <si>
+    <t>과자/베이커리</t>
+  </si>
+  <si>
+    <t>초콜릿</t>
+  </si>
+  <si>
+    <t>마르니스 콜드브루 원액 2L 1L+1L 더치커피 액상 커피 답례품 선물 대용량 [ 브라질 콜드브루 ]</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/10039028151</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8758353/87583530655.7.jpg</t>
+  </si>
+  <si>
+    <t>마르니스코리아</t>
+  </si>
+  <si>
+    <t>마르니스</t>
+  </si>
+  <si>
+    <t>커피</t>
+  </si>
+  <si>
+    <t>더치커피</t>
+  </si>
+  <si>
+    <t>오설록 프리미엄 티 컬렉션 10종 선물세트</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/catalog/42674612618</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_4267461/42674612618.20230915153155.jpg</t>
+  </si>
+  <si>
+    <t>오설록</t>
+  </si>
+  <si>
+    <t>허니바이허니 국산 벌꿀 스틱 30포 아카시아 야생화 밤 감로 때죽 피나무 5종 선생님 선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/5012548191</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8255706/82557068868.12.jpg</t>
+  </si>
+  <si>
+    <t>허니바이허니</t>
+  </si>
+  <si>
+    <t>꿀</t>
+  </si>
+  <si>
+    <t>줄리쿠키-버터 수제 쿠키 답례품 연말 새해 크리스마스 선물 세트 단체 간식 디저트 시즌1</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/2080049315</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_1370028/13700287904.4.jpg</t>
+  </si>
+  <si>
+    <t>줄리브</t>
+  </si>
+  <si>
+    <t>스낵</t>
+  </si>
+  <si>
+    <t>쿠키/비스킷</t>
+  </si>
+  <si>
+    <t>선하담 도라지정과 500g 기본형 연파랑 부모님 명절 설날 상견례 선물 세트</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/5718761544</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8326326/83263260039.11.jpg</t>
+  </si>
+  <si>
+    <t>선하담</t>
+  </si>
+  <si>
+    <t>전통과자</t>
+  </si>
+  <si>
+    <t>한과</t>
+  </si>
+  <si>
+    <t>[배도라지대추생강청] 약돌배약도라지 카페 과일 수제청 감기예방 차 선물세트 답례품500g</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/499217711</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_1036852/10368524299.14.jpg</t>
+  </si>
+  <si>
+    <t>초코써니 수제청 수제과일청</t>
+  </si>
+  <si>
+    <t>초코써니</t>
+  </si>
+  <si>
+    <t>보자기 꿀 상견례 선물 세트 선생님 교수님 자연 아카시아꿀 밤꿀 명절 결혼식 답례품</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/10149360237</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8769386/87693863491.jpg</t>
+  </si>
+  <si>
+    <t>달꿀농장</t>
+  </si>
+  <si>
+    <t>[모과청] 레몬 생강 수제청 과일청 답례품 감기예방 차 선물 세트 카페 납품 500g</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/2251941332</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_1253943/12539439246.19.jpg</t>
+  </si>
+  <si>
+    <t>하비브라운 수제 우드볼펜 선물용볼펜 각인펜 각인선물 0.5mm(M1) 영문필기체</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/5299030043</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8284352/82843522392.2.jpg</t>
+  </si>
+  <si>
+    <t>Hobby Brown</t>
+  </si>
+  <si>
+    <t>볼펜</t>
+  </si>
+  <si>
+    <t>[본사직영] 오설록 와플 티타임 선물세트</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/11289098712</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8883360/88833609043.5.jpg</t>
+  </si>
+  <si>
+    <t>오설록 본사직영몰</t>
+  </si>
+  <si>
+    <t>수제청 배 약도라지 대추생강청 550g 수제과일청 답례품 선물세트</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/2457154802</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_1336341/13363418681.4.jpg</t>
+  </si>
+  <si>
+    <t>차꽃</t>
+  </si>
+  <si>
+    <t>[본사직영] 오설록 티 베리에이션 오 선물세트 (6종x6입)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/10120191820</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8766469/87664694696.13.jpg</t>
+  </si>
+  <si>
+    <t>[본사직영] 오설록 차의 정원 선물세트 (9종x3입)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/11293101829</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8883761/88837612160.5.jpg</t>
+  </si>
+  <si>
+    <t>공방참진 수제 까먹는 과일화과자 수능 선물세트 어린이선물 대구 상견례 7구 귤</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/11013016523</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8855752/88557522660.10.jpg</t>
+  </si>
+  <si>
+    <t>공방참진</t>
+  </si>
+  <si>
+    <t>화과자</t>
+  </si>
+  <si>
+    <t>[쇼핑백포함] 피터래빗 선물용 틴케이스 버터 가득 고급 쿠키 크리스마스 선물</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/6088268937</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8363276/83632768425.7.jpg</t>
+  </si>
+  <si>
+    <t>당골</t>
+  </si>
+  <si>
+    <t>KELSEN</t>
+  </si>
+  <si>
+    <t>명품양갱2호 고급 선물세트 크리스마스 미니 영양갱 사무실 연양갱 부모님 어르신 할머니 요양원 단체간식 답례품</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/7098657686</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8464315/84643158008.14.jpg</t>
+  </si>
+  <si>
+    <t>파라팡</t>
+  </si>
+  <si>
+    <t>밀양한천</t>
+  </si>
+  <si>
+    <t>젠푸드</t>
+  </si>
+  <si>
+    <t>기타과자</t>
+  </si>
+  <si>
+    <t>수제 화과자 선물세트 상견례화과자 결혼 연말 신년 답례품 9구 부산</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/5915199713</t>
+  </si>
+  <si>
+    <t>https://shopping-phinf.pstatic.net/main_8345969/83459699201.42.jpg</t>
+  </si>
+  <si>
+    <t>공오이삼디저트</t>
   </si>
 </sst>
 </file>
@@ -5989,17 +6457,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B99A13C5-6FE6-4756-BB2A-EC94D41E8C52}" name="naver_gift_recommendation_dataset" displayName="naver_gift_recommendation_dataset" ref="A1:N466" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N466" xr:uid="{B99A13C5-6FE6-4756-BB2A-EC94D41E8C52}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="과일세트"/>
-        <filter val="기타주방데코"/>
-        <filter val="기타주방잡화"/>
-        <filter val="다이아몬드반지"/>
-        <filter val="편지지"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N466" xr:uid="{B99A13C5-6FE6-4756-BB2A-EC94D41E8C52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N466">
     <sortCondition ref="D1:D466"/>
   </sortState>
@@ -6286,10 +6744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76C6D75-4492-4B5F-A137-C3484904EACB}">
-  <dimension ref="A1:N466"/>
+  <dimension ref="A1:N505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="B464" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6354,7 +6812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>479</v>
       </c>
@@ -6398,7 +6856,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1838</v>
       </c>
@@ -6442,7 +6900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -6486,7 +6944,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1864</v>
       </c>
@@ -6530,7 +6988,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1722</v>
       </c>
@@ -6574,7 +7032,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>354</v>
       </c>
@@ -6618,7 +7076,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>404</v>
       </c>
@@ -6662,7 +7120,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1812</v>
       </c>
@@ -6706,7 +7164,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1835</v>
       </c>
@@ -6750,7 +7208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1279</v>
       </c>
@@ -6794,7 +7252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1282</v>
       </c>
@@ -6838,7 +7296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -6926,7 +7384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -6970,7 +7428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>1207</v>
       </c>
@@ -7014,7 +7472,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1823</v>
       </c>
@@ -7058,7 +7516,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1681</v>
       </c>
@@ -7102,7 +7560,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1194</v>
       </c>
@@ -7146,7 +7604,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1783</v>
       </c>
@@ -7190,7 +7648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>282</v>
       </c>
@@ -7234,7 +7692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1731</v>
       </c>
@@ -7278,7 +7736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>780</v>
       </c>
@@ -7322,7 +7780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>460</v>
       </c>
@@ -7366,7 +7824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1791</v>
       </c>
@@ -7410,7 +7868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>1794</v>
       </c>
@@ -7454,7 +7912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7498,7 +7956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1818</v>
       </c>
@@ -7542,7 +8000,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1787</v>
       </c>
@@ -7586,7 +8044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>906</v>
       </c>
@@ -7630,7 +8088,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>1808</v>
       </c>
@@ -7674,7 +8132,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>1941</v>
       </c>
@@ -7718,7 +8176,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>529</v>
       </c>
@@ -7762,7 +8220,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>1692</v>
       </c>
@@ -7806,7 +8264,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>489</v>
       </c>
@@ -7850,7 +8308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>273</v>
       </c>
@@ -7894,7 +8352,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>1715</v>
       </c>
@@ -7938,7 +8396,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>687</v>
       </c>
@@ -7982,7 +8440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>1670</v>
       </c>
@@ -8026,7 +8484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>1269</v>
       </c>
@@ -8070,7 +8528,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>431</v>
       </c>
@@ -8114,7 +8572,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>565</v>
       </c>
@@ -8158,7 +8616,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>785</v>
       </c>
@@ -8202,7 +8660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>918</v>
       </c>
@@ -8246,7 +8704,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>618</v>
       </c>
@@ -8290,7 +8748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>497</v>
       </c>
@@ -8334,7 +8792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>1204</v>
       </c>
@@ -8378,7 +8836,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>312</v>
       </c>
@@ -8422,7 +8880,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>902</v>
       </c>
@@ -8466,7 +8924,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>921</v>
       </c>
@@ -8510,7 +8968,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>1916</v>
       </c>
@@ -8598,7 +9056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>1223</v>
       </c>
@@ -8642,7 +9100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>1885</v>
       </c>
@@ -8730,7 +9188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>523</v>
       </c>
@@ -8774,7 +9232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>1830</v>
       </c>
@@ -8818,7 +9276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>1934</v>
       </c>
@@ -8862,7 +9320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>1198</v>
       </c>
@@ -8906,7 +9364,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>910</v>
       </c>
@@ -8950,7 +9408,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>1255</v>
       </c>
@@ -8994,7 +9452,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>526</v>
       </c>
@@ -9082,7 +9540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>1710</v>
       </c>
@@ -9126,7 +9584,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>1654</v>
       </c>
@@ -9170,7 +9628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>1875</v>
       </c>
@@ -9214,7 +9672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>844</v>
       </c>
@@ -9258,7 +9716,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>924</v>
       </c>
@@ -9302,7 +9760,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>614</v>
       </c>
@@ -9346,7 +9804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>575</v>
       </c>
@@ -9390,7 +9848,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>915</v>
       </c>
@@ -9434,7 +9892,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>551</v>
       </c>
@@ -9478,7 +9936,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>376</v>
       </c>
@@ -9522,7 +9980,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>1697</v>
       </c>
@@ -9566,7 +10024,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>1930</v>
       </c>
@@ -9610,7 +10068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -9654,7 +10112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>542</v>
       </c>
@@ -9698,7 +10156,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>1388</v>
       </c>
@@ -9742,7 +10200,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>1797</v>
       </c>
@@ -9786,7 +10244,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>562</v>
       </c>
@@ -9830,7 +10288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>834</v>
       </c>
@@ -9874,7 +10332,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>1780</v>
       </c>
@@ -9918,7 +10376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>336</v>
       </c>
@@ -9962,7 +10420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>427</v>
       </c>
@@ -10006,7 +10464,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>475</v>
       </c>
@@ -10050,7 +10508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>895</v>
       </c>
@@ -10094,7 +10552,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>1801</v>
       </c>
@@ -10138,7 +10596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1888</v>
       </c>
@@ -10182,7 +10640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1913</v>
       </c>
@@ -10226,7 +10684,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>1924</v>
       </c>
@@ -10270,7 +10728,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>537</v>
       </c>
@@ -10314,7 +10772,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -10358,7 +10816,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>516</v>
       </c>
@@ -10402,7 +10860,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1899</v>
       </c>
@@ -10446,7 +10904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1903</v>
       </c>
@@ -10490,7 +10948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>743</v>
       </c>
@@ -10534,7 +10992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>604</v>
       </c>
@@ -10578,7 +11036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>1827</v>
       </c>
@@ -10622,7 +11080,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>934</v>
       </c>
@@ -10666,7 +11124,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>601</v>
       </c>
@@ -10710,7 +11168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>647</v>
       </c>
@@ -10754,7 +11212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>798</v>
       </c>
@@ -10798,7 +11256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>989</v>
       </c>
@@ -10842,7 +11300,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>1805</v>
       </c>
@@ -10886,7 +11344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>971</v>
       </c>
@@ -10930,7 +11388,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>1335</v>
       </c>
@@ -10974,7 +11432,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>286</v>
       </c>
@@ -11018,7 +11476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>589</v>
       </c>
@@ -11062,7 +11520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>1706</v>
       </c>
@@ -11106,7 +11564,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -11150,7 +11608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>1263</v>
       </c>
@@ -11194,7 +11652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>730</v>
       </c>
@@ -11238,7 +11696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -11282,7 +11740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>873</v>
       </c>
@@ -11326,7 +11784,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>650</v>
       </c>
@@ -11370,7 +11828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>760</v>
       </c>
@@ -11414,7 +11872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>445</v>
       </c>
@@ -11458,7 +11916,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>855</v>
       </c>
@@ -11502,7 +11960,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>1017</v>
       </c>
@@ -11546,7 +12004,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>366</v>
       </c>
@@ -11590,7 +12048,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>951</v>
       </c>
@@ -11634,7 +12092,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>253</v>
       </c>
@@ -11678,7 +12136,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>1688</v>
       </c>
@@ -11722,7 +12180,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>105</v>
       </c>
@@ -11766,7 +12224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>939</v>
       </c>
@@ -11810,7 +12268,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>261</v>
       </c>
@@ -11854,7 +12312,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>976</v>
       </c>
@@ -11898,7 +12356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>881</v>
       </c>
@@ -11942,7 +12400,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>513</v>
       </c>
@@ -11986,7 +12444,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>955</v>
       </c>
@@ -12030,7 +12488,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -12074,7 +12532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>993</v>
       </c>
@@ -12118,7 +12576,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>964</v>
       </c>
@@ -12162,7 +12620,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>958</v>
       </c>
@@ -12206,7 +12664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>308</v>
       </c>
@@ -12250,7 +12708,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>1415</v>
       </c>
@@ -12294,7 +12752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>891</v>
       </c>
@@ -12338,7 +12796,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>1013</v>
       </c>
@@ -12382,7 +12840,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>569</v>
       </c>
@@ -12426,7 +12884,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -12470,7 +12928,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>1142</v>
       </c>
@@ -12514,7 +12972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>412</v>
       </c>
@@ -12558,7 +13016,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>805</v>
       </c>
@@ -12602,7 +13060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>1841</v>
       </c>
@@ -12646,7 +13104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>943</v>
       </c>
@@ -12690,7 +13148,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>898</v>
       </c>
@@ -12734,7 +13192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>1103</v>
       </c>
@@ -12778,7 +13236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>818</v>
       </c>
@@ -12822,7 +13280,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>452</v>
       </c>
@@ -12866,7 +13324,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>455</v>
       </c>
@@ -12910,7 +13368,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>332</v>
       </c>
@@ -12954,7 +13412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>595</v>
       </c>
@@ -12998,7 +13456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>961</v>
       </c>
@@ -13042,7 +13500,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -13086,7 +13544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>1047</v>
       </c>
@@ -13130,7 +13588,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>494</v>
       </c>
@@ -13174,7 +13632,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>1061</v>
       </c>
@@ -13218,7 +13676,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>1920</v>
       </c>
@@ -13262,7 +13720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>1034</v>
       </c>
@@ -13306,7 +13764,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>1295</v>
       </c>
@@ -13350,7 +13808,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>586</v>
       </c>
@@ -13394,7 +13852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>627</v>
       </c>
@@ -13438,7 +13896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>668</v>
       </c>
@@ -13482,7 +13940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>795</v>
       </c>
@@ -13526,7 +13984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>773</v>
       </c>
@@ -13570,7 +14028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>1130</v>
       </c>
@@ -13614,7 +14072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>1040</v>
       </c>
@@ -13658,7 +14116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>659</v>
       </c>
@@ -13702,7 +14160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>1937</v>
       </c>
@@ -13746,7 +14204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>1053</v>
       </c>
@@ -13790,7 +14248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>947</v>
       </c>
@@ -13834,7 +14292,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>1300</v>
       </c>
@@ -13878,7 +14336,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>1040</v>
       </c>
@@ -13922,7 +14380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>520</v>
       </c>
@@ -13966,7 +14424,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>980</v>
       </c>
@@ -14010,7 +14468,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>639</v>
       </c>
@@ -14054,7 +14512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>1858</v>
       </c>
@@ -14098,7 +14556,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>671</v>
       </c>
@@ -14142,7 +14600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>1891</v>
       </c>
@@ -14186,7 +14644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>545</v>
       </c>
@@ -14230,7 +14688,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -14274,7 +14732,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>1753</v>
       </c>
@@ -14318,7 +14776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>1332</v>
       </c>
@@ -14362,7 +14820,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>1685</v>
       </c>
@@ -14406,7 +14864,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>1385</v>
       </c>
@@ -14450,7 +14908,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>876</v>
       </c>
@@ -14494,7 +14952,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>1185</v>
       </c>
@@ -14538,7 +14996,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>1307</v>
       </c>
@@ -14582,7 +15040,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -14626,7 +15084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>1053</v>
       </c>
@@ -14670,7 +15128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>777</v>
       </c>
@@ -14714,7 +15172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>592</v>
       </c>
@@ -14758,7 +15216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>342</v>
       </c>
@@ -14802,7 +15260,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>635</v>
       </c>
@@ -14846,7 +15304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>1345</v>
       </c>
@@ -14890,7 +15348,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>1123</v>
       </c>
@@ -14934,7 +15392,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>1031</v>
       </c>
@@ -14978,7 +15436,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>1174</v>
       </c>
@@ -15022,7 +15480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>349</v>
       </c>
@@ -15066,7 +15524,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>387</v>
       </c>
@@ -15110,7 +15568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -15154,7 +15612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>967</v>
       </c>
@@ -15198,7 +15656,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>1100</v>
       </c>
@@ -15242,7 +15700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>788</v>
       </c>
@@ -15286,7 +15744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>1006</v>
       </c>
@@ -15330,7 +15788,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>642</v>
       </c>
@@ -15374,7 +15832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>1079</v>
       </c>
@@ -15418,7 +15876,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>607</v>
       </c>
@@ -15462,7 +15920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>631</v>
       </c>
@@ -15506,7 +15964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>1164</v>
       </c>
@@ -15550,7 +16008,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>1111</v>
       </c>
@@ -15594,7 +16052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>293</v>
       </c>
@@ -15638,7 +16096,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>1108</v>
       </c>
@@ -15682,7 +16140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>1146</v>
       </c>
@@ -15726,7 +16184,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>1906</v>
       </c>
@@ -15770,7 +16228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>1179</v>
       </c>
@@ -15814,7 +16272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>1311</v>
       </c>
@@ -15858,7 +16316,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>1395</v>
       </c>
@@ -15902,7 +16360,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>985</v>
       </c>
@@ -15946,7 +16404,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>1233</v>
       </c>
@@ -15990,7 +16448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>1854</v>
       </c>
@@ -16034,7 +16492,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>446</v>
       </c>
@@ -16078,7 +16536,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>1025</v>
       </c>
@@ -16122,7 +16580,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>1303</v>
       </c>
@@ -16166,7 +16624,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>677</v>
       </c>
@@ -16210,7 +16668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>1190</v>
       </c>
@@ -16254,7 +16712,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>1851</v>
       </c>
@@ -16298,7 +16756,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -16342,7 +16800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>1076</v>
       </c>
@@ -16386,7 +16844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>1674</v>
       </c>
@@ -16430,7 +16888,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>1086</v>
       </c>
@@ -16474,7 +16932,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>869</v>
       </c>
@@ -16518,7 +16976,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>1070</v>
       </c>
@@ -16562,7 +17020,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>1117</v>
       </c>
@@ -16606,7 +17064,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>1861</v>
       </c>
@@ -16650,7 +17108,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>1909</v>
       </c>
@@ -16694,7 +17152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>847</v>
       </c>
@@ -16738,7 +17196,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>1067</v>
       </c>
@@ -16782,7 +17240,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>1868</v>
       </c>
@@ -16826,7 +17284,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>1020</v>
       </c>
@@ -16870,7 +17328,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>1028</v>
       </c>
@@ -16914,7 +17372,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>1230</v>
       </c>
@@ -16958,7 +17416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>1167</v>
       </c>
@@ -17002,7 +17460,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>622</v>
       </c>
@@ -17046,7 +17504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>1117</v>
       </c>
@@ -17090,7 +17548,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>381</v>
       </c>
@@ -17134,7 +17592,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>558</v>
       </c>
@@ -17178,7 +17636,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>767</v>
       </c>
@@ -17222,7 +17680,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>662</v>
       </c>
@@ -17266,7 +17724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>838</v>
       </c>
@@ -17310,7 +17768,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>1348</v>
       </c>
@@ -17354,7 +17812,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>1160</v>
       </c>
@@ -17398,7 +17856,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>1086</v>
       </c>
@@ -17442,7 +17900,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>665</v>
       </c>
@@ -17486,7 +17944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>1073</v>
       </c>
@@ -17530,7 +17988,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>598</v>
       </c>
@@ -17574,7 +18032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>1096</v>
       </c>
@@ -17618,7 +18076,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -17662,7 +18120,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>1880</v>
       </c>
@@ -17706,7 +18164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>1895</v>
       </c>
@@ -17750,7 +18208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>1002</v>
       </c>
@@ -17794,7 +18252,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>505</v>
       </c>
@@ -17838,7 +18296,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>1319</v>
       </c>
@@ -17882,7 +18340,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>372</v>
       </c>
@@ -17926,7 +18384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>1740</v>
       </c>
@@ -17970,7 +18428,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>1245</v>
       </c>
@@ -18014,7 +18472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>674</v>
       </c>
@@ -18058,7 +18516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -18102,7 +18560,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>1328</v>
       </c>
@@ -18146,7 +18604,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>1010</v>
       </c>
@@ -18190,7 +18648,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>1289</v>
       </c>
@@ -18234,7 +18692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>392</v>
       </c>
@@ -18278,7 +18736,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>684</v>
       </c>
@@ -18322,7 +18780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>220</v>
       </c>
@@ -18366,7 +18824,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>927</v>
       </c>
@@ -18410,7 +18868,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>1201</v>
       </c>
@@ -18454,7 +18912,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>1138</v>
       </c>
@@ -18498,7 +18956,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>138</v>
       </c>
@@ -18542,7 +19000,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>860</v>
       </c>
@@ -18586,7 +19044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>203</v>
       </c>
@@ -18630,7 +19088,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>1149</v>
       </c>
@@ -18674,7 +19132,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>1701</v>
       </c>
@@ -18718,7 +19176,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>1324</v>
       </c>
@@ -18762,7 +19220,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>1086</v>
       </c>
@@ -18806,7 +19264,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>1219</v>
       </c>
@@ -18850,7 +19308,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>248</v>
       </c>
@@ -18894,7 +19352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>863</v>
       </c>
@@ -18938,7 +19396,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>734</v>
       </c>
@@ -18982,7 +19440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>825</v>
       </c>
@@ -19026,7 +19484,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>1399</v>
       </c>
@@ -19070,7 +19528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>653</v>
       </c>
@@ -19114,7 +19572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>1392</v>
       </c>
@@ -19158,7 +19616,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -19246,7 +19704,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>532</v>
       </c>
@@ -19290,7 +19748,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>1170</v>
       </c>
@@ -19334,7 +19792,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>1135</v>
       </c>
@@ -19378,7 +19836,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>398</v>
       </c>
@@ -19422,7 +19880,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>998</v>
       </c>
@@ -19466,7 +19924,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>215</v>
       </c>
@@ -19510,7 +19968,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>1153</v>
       </c>
@@ -19554,7 +20012,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>1037</v>
       </c>
@@ -19598,7 +20056,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>825</v>
       </c>
@@ -19642,7 +20100,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>465</v>
       </c>
@@ -19686,7 +20144,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>828</v>
       </c>
@@ -19730,7 +20188,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>1726</v>
       </c>
@@ -19774,7 +20232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>1363</v>
       </c>
@@ -19818,7 +20276,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>359</v>
       </c>
@@ -19862,7 +20320,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>118</v>
       </c>
@@ -19906,7 +20364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>1378</v>
       </c>
@@ -19950,7 +20408,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>681</v>
       </c>
@@ -19994,7 +20452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>1114</v>
       </c>
@@ -20038,7 +20496,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>384</v>
       </c>
@@ -20082,7 +20540,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>1286</v>
       </c>
@@ -20126,7 +20584,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>813</v>
       </c>
@@ -20170,7 +20628,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>1529</v>
       </c>
@@ -20214,7 +20672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>181</v>
       </c>
@@ -20258,7 +20716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>228</v>
       </c>
@@ -20390,7 +20848,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>1412</v>
       </c>
@@ -20434,7 +20892,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>421</v>
       </c>
@@ -20478,7 +20936,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>751</v>
       </c>
@@ -20522,7 +20980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>1409</v>
       </c>
@@ -20566,7 +21024,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>1315</v>
       </c>
@@ -20610,7 +21068,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>656</v>
       </c>
@@ -20654,7 +21112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>1260</v>
       </c>
@@ -20698,7 +21156,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>1275</v>
       </c>
@@ -20786,7 +21244,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>143</v>
       </c>
@@ -20830,7 +21288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>1718</v>
       </c>
@@ -20874,7 +21332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>1292</v>
       </c>
@@ -20918,7 +21376,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>850</v>
       </c>
@@ -21006,7 +21464,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>579</v>
       </c>
@@ -21050,7 +21508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>185</v>
       </c>
@@ -21094,7 +21552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>211</v>
       </c>
@@ -21138,7 +21596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>151</v>
       </c>
@@ -21182,7 +21640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>1420</v>
       </c>
@@ -21226,7 +21684,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>1942</v>
       </c>
@@ -21270,7 +21728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>171</v>
       </c>
@@ -21314,7 +21772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>234</v>
       </c>
@@ -21358,7 +21816,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>1342</v>
       </c>
@@ -21446,7 +21904,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>1357</v>
       </c>
@@ -21490,7 +21948,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>124</v>
       </c>
@@ -21534,7 +21992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>1339</v>
       </c>
@@ -21578,7 +22036,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>1403</v>
       </c>
@@ -21622,7 +22080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>1424</v>
       </c>
@@ -21666,7 +22124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>1508</v>
       </c>
@@ -21710,7 +22168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>278</v>
       </c>
@@ -21754,7 +22212,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>266</v>
       </c>
@@ -21798,7 +22256,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>1547</v>
       </c>
@@ -21842,7 +22300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>1576</v>
       </c>
@@ -21886,7 +22344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>1658</v>
       </c>
@@ -21930,7 +22388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>1765</v>
       </c>
@@ -21974,7 +22432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>316</v>
       </c>
@@ -22018,7 +22476,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>1511</v>
       </c>
@@ -22062,7 +22520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>706</v>
       </c>
@@ -22106,7 +22564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>726</v>
       </c>
@@ -22150,7 +22608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>1272</v>
       </c>
@@ -22194,7 +22652,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>190</v>
       </c>
@@ -22238,7 +22696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>1366</v>
       </c>
@@ -22282,7 +22740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>33</v>
       </c>
@@ -22326,7 +22784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>1572</v>
       </c>
@@ -22370,7 +22828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>83</v>
       </c>
@@ -22414,7 +22872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>1360</v>
       </c>
@@ -22458,7 +22916,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>1354</v>
       </c>
@@ -22502,7 +22960,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>75</v>
       </c>
@@ -22546,7 +23004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>89</v>
       </c>
@@ -22590,7 +23048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>1492</v>
       </c>
@@ -22634,7 +23092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>1431</v>
       </c>
@@ -22678,7 +23136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>46</v>
       </c>
@@ -22722,7 +23180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>764</v>
       </c>
@@ -22766,7 +23224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>1748</v>
       </c>
@@ -22810,7 +23268,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>716</v>
       </c>
@@ -22854,7 +23312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>71</v>
       </c>
@@ -22898,7 +23356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>29</v>
       </c>
@@ -22942,7 +23400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>709</v>
       </c>
@@ -22986,7 +23444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>747</v>
       </c>
@@ -23030,7 +23488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>703</v>
       </c>
@@ -23074,7 +23532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>722</v>
       </c>
@@ -23118,7 +23576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>67</v>
       </c>
@@ -23162,7 +23620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>38</v>
       </c>
@@ -23206,7 +23664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>757</v>
       </c>
@@ -23250,7 +23708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>801</v>
       </c>
@@ -23294,7 +23752,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>97</v>
       </c>
@@ -23338,7 +23796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>129</v>
       </c>
@@ -23382,7 +23840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>62</v>
       </c>
@@ -23426,7 +23884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>719</v>
       </c>
@@ -23470,7 +23928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>1642</v>
       </c>
@@ -23514,7 +23972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>712</v>
       </c>
@@ -23558,7 +24016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -23602,7 +24060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>168</v>
       </c>
@@ -23646,7 +24104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>114</v>
       </c>
@@ -23690,7 +24148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>1611</v>
       </c>
@@ -23734,7 +24192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>1594</v>
       </c>
@@ -23778,7 +24236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>1649</v>
       </c>
@@ -23822,7 +24280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>791</v>
       </c>
@@ -23910,7 +24368,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>1442</v>
       </c>
@@ -23954,7 +24412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>697</v>
       </c>
@@ -23998,7 +24456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>754</v>
       </c>
@@ -24042,7 +24500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>1629</v>
       </c>
@@ -24130,7 +24588,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>1437</v>
       </c>
@@ -24174,7 +24632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>1569</v>
       </c>
@@ -24218,7 +24676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>1664</v>
       </c>
@@ -24262,7 +24720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>1522</v>
       </c>
@@ -24306,7 +24764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>1434</v>
       </c>
@@ -24350,7 +24808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>1736</v>
       </c>
@@ -24438,7 +24896,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>1598</v>
       </c>
@@ -24482,7 +24940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>888</v>
       </c>
@@ -24526,7 +24984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>1608</v>
       </c>
@@ -24570,7 +25028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>738</v>
       </c>
@@ -24614,7 +25072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>1533</v>
       </c>
@@ -24658,7 +25116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>1499</v>
       </c>
@@ -24702,7 +25160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>1544</v>
       </c>
@@ -24746,7 +25204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>1646</v>
       </c>
@@ -24790,7 +25248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>1636</v>
       </c>
@@ -24834,7 +25292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>1515</v>
       </c>
@@ -24878,7 +25336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>1484</v>
       </c>
@@ -24922,7 +25380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>1460</v>
       </c>
@@ -24966,7 +25424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>1619</v>
       </c>
@@ -25010,7 +25468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>1428</v>
       </c>
@@ -25054,7 +25512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>1467</v>
       </c>
@@ -25098,7 +25556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>1470</v>
       </c>
@@ -25142,7 +25600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>1565</v>
       </c>
@@ -25186,7 +25644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>1453</v>
       </c>
@@ -25230,7 +25688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>1464</v>
       </c>
@@ -25274,7 +25732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>1554</v>
       </c>
@@ -25318,7 +25776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>1602</v>
       </c>
@@ -25362,7 +25820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>1456</v>
       </c>
@@ -25406,7 +25864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>1626</v>
       </c>
@@ -25450,7 +25908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>1579</v>
       </c>
@@ -25494,7 +25952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>1633</v>
       </c>
@@ -25538,7 +25996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>1496</v>
       </c>
@@ -25582,7 +26040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>1557</v>
       </c>
@@ -25626,7 +26084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>1449</v>
       </c>
@@ -25670,7 +26128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>1473</v>
       </c>
@@ -25714,7 +26172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>1480</v>
       </c>
@@ -25758,7 +26216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>1639</v>
       </c>
@@ -25802,7 +26260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>1622</v>
       </c>
@@ -25846,7 +26304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>1588</v>
       </c>
@@ -25890,7 +26348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>1605</v>
       </c>
@@ -25934,7 +26392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>1505</v>
       </c>
@@ -25978,7 +26436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>1760</v>
       </c>
@@ -26022,7 +26480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>1551</v>
       </c>
@@ -26066,7 +26524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>1539</v>
       </c>
@@ -26110,7 +26568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>1502</v>
       </c>
@@ -26154,7 +26612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>1769</v>
       </c>
@@ -26198,7 +26656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>1445</v>
       </c>
@@ -26242,7 +26700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>1487</v>
       </c>
@@ -26286,7 +26744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>1560</v>
       </c>
@@ -26330,7 +26788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>1536</v>
       </c>
@@ -26374,7 +26832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>1772</v>
       </c>
@@ -26418,7 +26876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>1585</v>
       </c>
@@ -26462,7 +26920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>1591</v>
       </c>
@@ -26506,7 +26964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>1525</v>
       </c>
@@ -26550,7 +27008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>1616</v>
       </c>
@@ -26594,7 +27052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>1476</v>
       </c>
@@ -26638,7 +27096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>1661</v>
       </c>
@@ -26682,7 +27140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>1518</v>
       </c>
@@ -26726,7 +27184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>1582</v>
       </c>
@@ -26770,7 +27228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>690</v>
       </c>
@@ -26812,6 +27270,1722 @@
       </c>
       <c r="N466" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A467" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D467">
+        <v>689000</v>
+      </c>
+      <c r="E467" t="s">
+        <v>14</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G467">
+        <v>87443088632</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+      <c r="I467" t="s">
+        <v>79</v>
+      </c>
+      <c r="J467" t="s">
+        <v>79</v>
+      </c>
+      <c r="K467" t="s">
+        <v>19</v>
+      </c>
+      <c r="L467" t="s">
+        <v>80</v>
+      </c>
+      <c r="M467" t="s">
+        <v>81</v>
+      </c>
+      <c r="N467" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A468" t="s">
+        <v>171</v>
+      </c>
+      <c r="B468" t="s">
+        <v>172</v>
+      </c>
+      <c r="C468" t="s">
+        <v>173</v>
+      </c>
+      <c r="D468">
+        <v>129800</v>
+      </c>
+      <c r="E468" t="s">
+        <v>14</v>
+      </c>
+      <c r="F468" t="s">
+        <v>174</v>
+      </c>
+      <c r="G468">
+        <v>87898246605</v>
+      </c>
+      <c r="H468">
+        <v>2</v>
+      </c>
+      <c r="I468" t="s">
+        <v>175</v>
+      </c>
+      <c r="J468" t="s">
+        <v>14</v>
+      </c>
+      <c r="K468" t="s">
+        <v>19</v>
+      </c>
+      <c r="L468" t="s">
+        <v>80</v>
+      </c>
+      <c r="M468" t="s">
+        <v>81</v>
+      </c>
+      <c r="N468" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A469" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D469">
+        <v>839900</v>
+      </c>
+      <c r="E469" t="s">
+        <v>14</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G469">
+        <v>86177048016</v>
+      </c>
+      <c r="H469">
+        <v>2</v>
+      </c>
+      <c r="I469" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J469" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K469" t="s">
+        <v>19</v>
+      </c>
+      <c r="L469" t="s">
+        <v>80</v>
+      </c>
+      <c r="M469" t="s">
+        <v>81</v>
+      </c>
+      <c r="N469" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A470" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D470">
+        <v>34900</v>
+      </c>
+      <c r="E470" t="s">
+        <v>14</v>
+      </c>
+      <c r="F470" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G470">
+        <v>86199487983</v>
+      </c>
+      <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470" t="s">
+        <v>14</v>
+      </c>
+      <c r="J470" t="s">
+        <v>14</v>
+      </c>
+      <c r="K470" t="s">
+        <v>19</v>
+      </c>
+      <c r="L470" t="s">
+        <v>80</v>
+      </c>
+      <c r="M470" t="s">
+        <v>81</v>
+      </c>
+      <c r="N470" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A471" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D471">
+        <v>99000</v>
+      </c>
+      <c r="E471" t="s">
+        <v>14</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G471">
+        <v>86956707970</v>
+      </c>
+      <c r="H471">
+        <v>2</v>
+      </c>
+      <c r="I471" t="s">
+        <v>188</v>
+      </c>
+      <c r="J471" t="s">
+        <v>188</v>
+      </c>
+      <c r="K471" t="s">
+        <v>19</v>
+      </c>
+      <c r="L471" t="s">
+        <v>80</v>
+      </c>
+      <c r="M471" t="s">
+        <v>81</v>
+      </c>
+      <c r="N471" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A472" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D472">
+        <v>11250</v>
+      </c>
+      <c r="E472" t="s">
+        <v>14</v>
+      </c>
+      <c r="F472" t="s">
+        <v>42</v>
+      </c>
+      <c r="G472">
+        <v>57097083916</v>
+      </c>
+      <c r="H472">
+        <v>1</v>
+      </c>
+      <c r="I472" t="s">
+        <v>14</v>
+      </c>
+      <c r="J472" t="s">
+        <v>14</v>
+      </c>
+      <c r="K472" t="s">
+        <v>19</v>
+      </c>
+      <c r="L472" t="s">
+        <v>80</v>
+      </c>
+      <c r="M472" t="s">
+        <v>81</v>
+      </c>
+      <c r="N472" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A473" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D473">
+        <v>170000</v>
+      </c>
+      <c r="E473" t="s">
+        <v>14</v>
+      </c>
+      <c r="F473" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G473">
+        <v>82468019433</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+      <c r="I473" t="s">
+        <v>14</v>
+      </c>
+      <c r="J473" t="s">
+        <v>14</v>
+      </c>
+      <c r="K473" t="s">
+        <v>19</v>
+      </c>
+      <c r="L473" t="s">
+        <v>80</v>
+      </c>
+      <c r="M473" t="s">
+        <v>81</v>
+      </c>
+      <c r="N473" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A474" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D474">
+        <v>139000</v>
+      </c>
+      <c r="E474" t="s">
+        <v>14</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G474">
+        <v>87410024335</v>
+      </c>
+      <c r="H474">
+        <v>2</v>
+      </c>
+      <c r="I474" t="s">
+        <v>14</v>
+      </c>
+      <c r="J474" t="s">
+        <v>14</v>
+      </c>
+      <c r="K474" t="s">
+        <v>19</v>
+      </c>
+      <c r="L474" t="s">
+        <v>80</v>
+      </c>
+      <c r="M474" t="s">
+        <v>81</v>
+      </c>
+      <c r="N474" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A475" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D475">
+        <v>39000</v>
+      </c>
+      <c r="E475" t="s">
+        <v>14</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G475">
+        <v>90048329616</v>
+      </c>
+      <c r="H475">
+        <v>2</v>
+      </c>
+      <c r="I475" t="s">
+        <v>14</v>
+      </c>
+      <c r="J475" t="s">
+        <v>14</v>
+      </c>
+      <c r="K475" t="s">
+        <v>19</v>
+      </c>
+      <c r="L475" t="s">
+        <v>80</v>
+      </c>
+      <c r="M475" t="s">
+        <v>81</v>
+      </c>
+      <c r="N475" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A476" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D476">
+        <v>52000</v>
+      </c>
+      <c r="E476" t="s">
+        <v>14</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G476">
+        <v>90046281768</v>
+      </c>
+      <c r="H476">
+        <v>2</v>
+      </c>
+      <c r="I476" t="s">
+        <v>14</v>
+      </c>
+      <c r="J476" t="s">
+        <v>14</v>
+      </c>
+      <c r="K476" t="s">
+        <v>19</v>
+      </c>
+      <c r="L476" t="s">
+        <v>80</v>
+      </c>
+      <c r="M476" t="s">
+        <v>81</v>
+      </c>
+      <c r="N476" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A477" t="s">
+        <v>97</v>
+      </c>
+      <c r="B477" t="s">
+        <v>98</v>
+      </c>
+      <c r="C477" t="s">
+        <v>99</v>
+      </c>
+      <c r="D477">
+        <v>439000</v>
+      </c>
+      <c r="E477" t="s">
+        <v>14</v>
+      </c>
+      <c r="F477" t="s">
+        <v>100</v>
+      </c>
+      <c r="G477">
+        <v>10655690771</v>
+      </c>
+      <c r="H477">
+        <v>2</v>
+      </c>
+      <c r="I477" t="s">
+        <v>101</v>
+      </c>
+      <c r="J477" t="s">
+        <v>101</v>
+      </c>
+      <c r="K477" t="s">
+        <v>19</v>
+      </c>
+      <c r="L477" t="s">
+        <v>80</v>
+      </c>
+      <c r="M477" t="s">
+        <v>81</v>
+      </c>
+      <c r="N477" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A478" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D478">
+        <v>39000</v>
+      </c>
+      <c r="E478" t="s">
+        <v>14</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G478">
+        <v>82268945860</v>
+      </c>
+      <c r="H478">
+        <v>2</v>
+      </c>
+      <c r="I478" t="s">
+        <v>14</v>
+      </c>
+      <c r="J478" t="s">
+        <v>14</v>
+      </c>
+      <c r="K478" t="s">
+        <v>19</v>
+      </c>
+      <c r="L478" t="s">
+        <v>80</v>
+      </c>
+      <c r="M478" t="s">
+        <v>81</v>
+      </c>
+      <c r="N478" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A479" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D479">
+        <v>159000</v>
+      </c>
+      <c r="E479" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G479">
+        <v>89476230958</v>
+      </c>
+      <c r="H479">
+        <v>2</v>
+      </c>
+      <c r="I479" t="s">
+        <v>188</v>
+      </c>
+      <c r="J479" t="s">
+        <v>188</v>
+      </c>
+      <c r="K479" t="s">
+        <v>19</v>
+      </c>
+      <c r="L479" t="s">
+        <v>80</v>
+      </c>
+      <c r="M479" t="s">
+        <v>81</v>
+      </c>
+      <c r="N479" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A480" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D480">
+        <v>30000</v>
+      </c>
+      <c r="E480" t="s">
+        <v>14</v>
+      </c>
+      <c r="F480" t="s">
+        <v>617</v>
+      </c>
+      <c r="G480">
+        <v>58137379008</v>
+      </c>
+      <c r="H480">
+        <v>2</v>
+      </c>
+      <c r="I480" t="s">
+        <v>14</v>
+      </c>
+      <c r="J480" t="s">
+        <v>14</v>
+      </c>
+      <c r="K480" t="s">
+        <v>19</v>
+      </c>
+      <c r="L480" t="s">
+        <v>80</v>
+      </c>
+      <c r="M480" t="s">
+        <v>81</v>
+      </c>
+      <c r="N480" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A481" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D481">
+        <v>39000</v>
+      </c>
+      <c r="E481" t="s">
+        <v>14</v>
+      </c>
+      <c r="F481" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G481">
+        <v>90016371643</v>
+      </c>
+      <c r="H481">
+        <v>2</v>
+      </c>
+      <c r="I481" t="s">
+        <v>14</v>
+      </c>
+      <c r="J481" t="s">
+        <v>14</v>
+      </c>
+      <c r="K481" t="s">
+        <v>19</v>
+      </c>
+      <c r="L481" t="s">
+        <v>80</v>
+      </c>
+      <c r="M481" t="s">
+        <v>81</v>
+      </c>
+      <c r="N481" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A482" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D482">
+        <v>28140</v>
+      </c>
+      <c r="E482" t="s">
+        <v>14</v>
+      </c>
+      <c r="F482" t="s">
+        <v>617</v>
+      </c>
+      <c r="G482">
+        <v>58137347228</v>
+      </c>
+      <c r="H482">
+        <v>2</v>
+      </c>
+      <c r="I482" t="s">
+        <v>14</v>
+      </c>
+      <c r="J482" t="s">
+        <v>14</v>
+      </c>
+      <c r="K482" t="s">
+        <v>19</v>
+      </c>
+      <c r="L482" t="s">
+        <v>80</v>
+      </c>
+      <c r="M482" t="s">
+        <v>81</v>
+      </c>
+      <c r="N482" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A483" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D483">
+        <v>20000</v>
+      </c>
+      <c r="E483" t="s">
+        <v>14</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G483">
+        <v>55435836948</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+      <c r="I483" t="s">
+        <v>14</v>
+      </c>
+      <c r="J483" t="s">
+        <v>14</v>
+      </c>
+      <c r="K483" t="s">
+        <v>19</v>
+      </c>
+      <c r="L483" t="s">
+        <v>80</v>
+      </c>
+      <c r="M483" t="s">
+        <v>81</v>
+      </c>
+      <c r="N483" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A484" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D484">
+        <v>27700</v>
+      </c>
+      <c r="E484" t="s">
+        <v>14</v>
+      </c>
+      <c r="F484" t="s">
+        <v>42</v>
+      </c>
+      <c r="G484">
+        <v>53127278916</v>
+      </c>
+      <c r="H484">
+        <v>1</v>
+      </c>
+      <c r="I484" t="s">
+        <v>14</v>
+      </c>
+      <c r="J484" t="s">
+        <v>14</v>
+      </c>
+      <c r="K484" t="s">
+        <v>19</v>
+      </c>
+      <c r="L484" t="s">
+        <v>80</v>
+      </c>
+      <c r="M484" t="s">
+        <v>81</v>
+      </c>
+      <c r="N484" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A485" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B485" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C485" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D485">
+        <v>15750</v>
+      </c>
+      <c r="E485" t="s">
+        <v>14</v>
+      </c>
+      <c r="F485" t="s">
+        <v>42</v>
+      </c>
+      <c r="G485">
+        <v>55851433136</v>
+      </c>
+      <c r="H485">
+        <v>1</v>
+      </c>
+      <c r="I485" t="s">
+        <v>14</v>
+      </c>
+      <c r="J485" t="s">
+        <v>14</v>
+      </c>
+      <c r="K485" t="s">
+        <v>19</v>
+      </c>
+      <c r="L485" t="s">
+        <v>80</v>
+      </c>
+      <c r="M485" t="s">
+        <v>81</v>
+      </c>
+      <c r="N485" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A486" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B486" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C486" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D486">
+        <v>21120</v>
+      </c>
+      <c r="E486" t="s">
+        <v>14</v>
+      </c>
+      <c r="F486" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G486">
+        <v>89920653241</v>
+      </c>
+      <c r="H486">
+        <v>2</v>
+      </c>
+      <c r="I486" t="s">
+        <v>14</v>
+      </c>
+      <c r="J486" t="s">
+        <v>14</v>
+      </c>
+      <c r="K486" t="s">
+        <v>19</v>
+      </c>
+      <c r="L486" t="s">
+        <v>80</v>
+      </c>
+      <c r="M486" t="s">
+        <v>81</v>
+      </c>
+      <c r="N486" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A487" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B487" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C487" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D487">
+        <v>24760</v>
+      </c>
+      <c r="E487" t="s">
+        <v>14</v>
+      </c>
+      <c r="F487" t="s">
+        <v>626</v>
+      </c>
+      <c r="G487">
+        <v>51109645645</v>
+      </c>
+      <c r="H487">
+        <v>2</v>
+      </c>
+      <c r="I487" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J487" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K487" t="s">
+        <v>19</v>
+      </c>
+      <c r="L487" t="s">
+        <v>80</v>
+      </c>
+      <c r="M487" t="s">
+        <v>81</v>
+      </c>
+      <c r="N487" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A488" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B488" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C488" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D488">
+        <v>26490</v>
+      </c>
+      <c r="E488" t="s">
+        <v>14</v>
+      </c>
+      <c r="F488" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G488">
+        <v>90145323584</v>
+      </c>
+      <c r="H488">
+        <v>2</v>
+      </c>
+      <c r="I488" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J488" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K488" t="s">
+        <v>207</v>
+      </c>
+      <c r="L488" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M488" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N488" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A489" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C489" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D489">
+        <v>22800</v>
+      </c>
+      <c r="E489" t="s">
+        <v>14</v>
+      </c>
+      <c r="F489" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G489">
+        <v>87583530655</v>
+      </c>
+      <c r="H489">
+        <v>2</v>
+      </c>
+      <c r="I489" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J489" t="s">
+        <v>14</v>
+      </c>
+      <c r="K489" t="s">
+        <v>207</v>
+      </c>
+      <c r="L489" t="s">
+        <v>822</v>
+      </c>
+      <c r="M489" t="s">
+        <v>2024</v>
+      </c>
+      <c r="N489" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A490" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B490" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C490" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D490">
+        <v>21900</v>
+      </c>
+      <c r="E490" t="s">
+        <v>14</v>
+      </c>
+      <c r="F490" t="s">
+        <v>42</v>
+      </c>
+      <c r="G490">
+        <v>42674612618</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J490" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K490" t="s">
+        <v>207</v>
+      </c>
+      <c r="L490" t="s">
+        <v>822</v>
+      </c>
+      <c r="M490" t="s">
+        <v>823</v>
+      </c>
+      <c r="N490" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A491" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B491" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C491" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D491">
+        <v>20000</v>
+      </c>
+      <c r="E491" t="s">
+        <v>14</v>
+      </c>
+      <c r="F491" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G491">
+        <v>82557068868</v>
+      </c>
+      <c r="H491">
+        <v>2</v>
+      </c>
+      <c r="I491" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J491" t="s">
+        <v>14</v>
+      </c>
+      <c r="K491" t="s">
+        <v>207</v>
+      </c>
+      <c r="L491" t="s">
+        <v>225</v>
+      </c>
+      <c r="M491" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N491" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A492" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B492" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C492" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D492">
+        <v>24900</v>
+      </c>
+      <c r="E492" t="s">
+        <v>14</v>
+      </c>
+      <c r="F492" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G492">
+        <v>13700287904</v>
+      </c>
+      <c r="H492">
+        <v>2</v>
+      </c>
+      <c r="I492" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J492" t="s">
+        <v>14</v>
+      </c>
+      <c r="K492" t="s">
+        <v>207</v>
+      </c>
+      <c r="L492" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M492" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N492" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A493" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C493" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D493">
+        <v>44500</v>
+      </c>
+      <c r="E493" t="s">
+        <v>14</v>
+      </c>
+      <c r="F493" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G493">
+        <v>83263260039</v>
+      </c>
+      <c r="H493">
+        <v>2</v>
+      </c>
+      <c r="I493" t="s">
+        <v>2044</v>
+      </c>
+      <c r="J493" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K493" t="s">
+        <v>207</v>
+      </c>
+      <c r="L493" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M493" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N493" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A494" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C494" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D494">
+        <v>24000</v>
+      </c>
+      <c r="E494" t="s">
+        <v>14</v>
+      </c>
+      <c r="F494" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G494">
+        <v>10368524299</v>
+      </c>
+      <c r="H494">
+        <v>2</v>
+      </c>
+      <c r="I494" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J494" t="s">
+        <v>14</v>
+      </c>
+      <c r="K494" t="s">
+        <v>207</v>
+      </c>
+      <c r="L494" t="s">
+        <v>822</v>
+      </c>
+      <c r="M494" t="s">
+        <v>823</v>
+      </c>
+      <c r="N494" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A495" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B495" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C495" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D495">
+        <v>53800</v>
+      </c>
+      <c r="E495" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G495">
+        <v>87693863491</v>
+      </c>
+      <c r="H495">
+        <v>2</v>
+      </c>
+      <c r="I495" t="s">
+        <v>2055</v>
+      </c>
+      <c r="J495" t="s">
+        <v>14</v>
+      </c>
+      <c r="K495" t="s">
+        <v>207</v>
+      </c>
+      <c r="L495" t="s">
+        <v>225</v>
+      </c>
+      <c r="M495" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N495" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A496" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C496" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D496">
+        <v>18000</v>
+      </c>
+      <c r="E496" t="s">
+        <v>14</v>
+      </c>
+      <c r="F496" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G496">
+        <v>12539439246</v>
+      </c>
+      <c r="H496">
+        <v>2</v>
+      </c>
+      <c r="I496" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J496" t="s">
+        <v>14</v>
+      </c>
+      <c r="K496" t="s">
+        <v>207</v>
+      </c>
+      <c r="L496" t="s">
+        <v>822</v>
+      </c>
+      <c r="M496" t="s">
+        <v>823</v>
+      </c>
+      <c r="N496" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A497" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C497" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D497">
+        <v>24200</v>
+      </c>
+      <c r="E497" t="s">
+        <v>14</v>
+      </c>
+      <c r="F497" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G497">
+        <v>82843522392</v>
+      </c>
+      <c r="H497">
+        <v>2</v>
+      </c>
+      <c r="I497" t="s">
+        <v>14</v>
+      </c>
+      <c r="J497" t="s">
+        <v>14</v>
+      </c>
+      <c r="K497" t="s">
+        <v>92</v>
+      </c>
+      <c r="L497" t="s">
+        <v>93</v>
+      </c>
+      <c r="M497" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N497" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A498" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C498" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D498">
+        <v>16900</v>
+      </c>
+      <c r="E498" t="s">
+        <v>14</v>
+      </c>
+      <c r="F498" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G498">
+        <v>88833609043</v>
+      </c>
+      <c r="H498">
+        <v>2</v>
+      </c>
+      <c r="I498" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J498" t="s">
+        <v>14</v>
+      </c>
+      <c r="K498" t="s">
+        <v>207</v>
+      </c>
+      <c r="L498" t="s">
+        <v>822</v>
+      </c>
+      <c r="M498" t="s">
+        <v>823</v>
+      </c>
+      <c r="N498" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A499" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C499" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D499">
+        <v>15900</v>
+      </c>
+      <c r="E499" t="s">
+        <v>14</v>
+      </c>
+      <c r="F499" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G499">
+        <v>13363418681</v>
+      </c>
+      <c r="H499">
+        <v>2</v>
+      </c>
+      <c r="I499" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J499" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K499" t="s">
+        <v>207</v>
+      </c>
+      <c r="L499" t="s">
+        <v>822</v>
+      </c>
+      <c r="M499" t="s">
+        <v>823</v>
+      </c>
+      <c r="N499" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A500" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B500" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C500" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D500">
+        <v>21000</v>
+      </c>
+      <c r="E500" t="s">
+        <v>14</v>
+      </c>
+      <c r="F500" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G500">
+        <v>87664694696</v>
+      </c>
+      <c r="H500">
+        <v>2</v>
+      </c>
+      <c r="I500" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J500" t="s">
+        <v>14</v>
+      </c>
+      <c r="K500" t="s">
+        <v>207</v>
+      </c>
+      <c r="L500" t="s">
+        <v>822</v>
+      </c>
+      <c r="M500" t="s">
+        <v>823</v>
+      </c>
+      <c r="N500" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A501" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D501">
+        <v>48600</v>
+      </c>
+      <c r="E501" t="s">
+        <v>14</v>
+      </c>
+      <c r="F501" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G501">
+        <v>88837612160</v>
+      </c>
+      <c r="H501">
+        <v>2</v>
+      </c>
+      <c r="I501" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J501" t="s">
+        <v>14</v>
+      </c>
+      <c r="K501" t="s">
+        <v>207</v>
+      </c>
+      <c r="L501" t="s">
+        <v>822</v>
+      </c>
+      <c r="M501" t="s">
+        <v>823</v>
+      </c>
+      <c r="N501" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A502" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B502" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C502" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D502">
+        <v>29000</v>
+      </c>
+      <c r="E502" t="s">
+        <v>14</v>
+      </c>
+      <c r="F502" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G502">
+        <v>88557522660</v>
+      </c>
+      <c r="H502">
+        <v>2</v>
+      </c>
+      <c r="I502" t="s">
+        <v>14</v>
+      </c>
+      <c r="J502" t="s">
+        <v>14</v>
+      </c>
+      <c r="K502" t="s">
+        <v>207</v>
+      </c>
+      <c r="L502" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M502" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N502" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A503" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B503" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D503">
+        <v>10900</v>
+      </c>
+      <c r="E503" t="s">
+        <v>14</v>
+      </c>
+      <c r="F503" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G503">
+        <v>83632768425</v>
+      </c>
+      <c r="H503">
+        <v>2</v>
+      </c>
+      <c r="I503" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J503" t="s">
+        <v>14</v>
+      </c>
+      <c r="K503" t="s">
+        <v>207</v>
+      </c>
+      <c r="L503" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M503" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N503" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A504" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D504">
+        <v>13000</v>
+      </c>
+      <c r="E504" t="s">
+        <v>14</v>
+      </c>
+      <c r="F504" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G504">
+        <v>84643158008</v>
+      </c>
+      <c r="H504">
+        <v>2</v>
+      </c>
+      <c r="I504" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J504" t="s">
+        <v>2093</v>
+      </c>
+      <c r="K504" t="s">
+        <v>207</v>
+      </c>
+      <c r="L504" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M504" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N504" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A505" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B505" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C505" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D505">
+        <v>39600</v>
+      </c>
+      <c r="E505" t="s">
+        <v>14</v>
+      </c>
+      <c r="F505" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G505">
+        <v>83459699201</v>
+      </c>
+      <c r="H505">
+        <v>2</v>
+      </c>
+      <c r="I505" t="s">
+        <v>14</v>
+      </c>
+      <c r="J505" t="s">
+        <v>14</v>
+      </c>
+      <c r="K505" t="s">
+        <v>207</v>
+      </c>
+      <c r="L505" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M505" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N505" t="s">
+        <v>2082</v>
       </c>
     </row>
   </sheetData>
